--- a/src/test/resources/testdata/LoginPage_002_LoginFail.xlsx
+++ b/src/test/resources/testdata/LoginPage_002_LoginFail.xlsx
@@ -27,9 +27,6 @@
     <t>helloxwr</t>
   </si>
   <si>
-    <t>expecttext</t>
-  </si>
-  <si>
     <t>请输入帐号</t>
   </si>
   <si>
@@ -40,6 +37,10 @@
   </si>
   <si>
     <t>帐号或密码错误</t>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,7 +412,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -429,14 +430,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,7 +446,7 @@
         <v>123456</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,18 +455,18 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>123456</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
